--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H2">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I2">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J2">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N2">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O2">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P2">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q2">
-        <v>378.8142043140472</v>
+        <v>34.47892407281778</v>
       </c>
       <c r="R2">
-        <v>3409.327838826425</v>
+        <v>310.3103166553599</v>
       </c>
       <c r="S2">
-        <v>0.5203278520131752</v>
+        <v>0.1966698912529521</v>
       </c>
       <c r="T2">
-        <v>0.5203278520131752</v>
+        <v>0.1966698912529521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H3">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I3">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J3">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.124011</v>
       </c>
       <c r="O3">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P3">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q3">
-        <v>0.685377311985</v>
+        <v>0.19696060854</v>
       </c>
       <c r="R3">
-        <v>6.168395807865</v>
+        <v>1.77264547686</v>
       </c>
       <c r="S3">
-        <v>0.0009414137603669965</v>
+        <v>0.001123475354998552</v>
       </c>
       <c r="T3">
-        <v>0.0009414137603669965</v>
+        <v>0.001123475354998552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.58023833333333</v>
+        <v>4.764753333333333</v>
       </c>
       <c r="H4">
-        <v>49.740715</v>
+        <v>14.29426</v>
       </c>
       <c r="I4">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="J4">
-        <v>0.63541025828417</v>
+        <v>0.2966169987831952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N4">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O4">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P4">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q4">
-        <v>83.09804883639835</v>
+        <v>17.32513547784444</v>
       </c>
       <c r="R4">
-        <v>747.882439527585</v>
+        <v>155.9262193006</v>
       </c>
       <c r="S4">
-        <v>0.1141409925106278</v>
+        <v>0.09882363217524456</v>
       </c>
       <c r="T4">
-        <v>0.1141409925106278</v>
+        <v>0.09882363217524456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.722447</v>
       </c>
       <c r="I5">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J5">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N5">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O5">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P5">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q5">
-        <v>195.8964259624183</v>
+        <v>62.04464568855467</v>
       </c>
       <c r="R5">
-        <v>1763.067833661765</v>
+        <v>558.401811196992</v>
       </c>
       <c r="S5">
-        <v>0.2690774669409706</v>
+        <v>0.3539064529573286</v>
       </c>
       <c r="T5">
-        <v>0.2690774669409707</v>
+        <v>0.3539064529573286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.722447</v>
       </c>
       <c r="I6">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J6">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.124011</v>
       </c>
       <c r="O6">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P6">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q6">
         <v>0.354429597213</v>
@@ -818,10 +818,10 @@
         <v>3.189866374917</v>
       </c>
       <c r="S6">
-        <v>0.0004868338856027858</v>
+        <v>0.002021688095414274</v>
       </c>
       <c r="T6">
-        <v>0.0004868338856027858</v>
+        <v>0.002021688095414273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.722447</v>
       </c>
       <c r="I7">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504776</v>
       </c>
       <c r="J7">
-        <v>0.3285901035393414</v>
+        <v>0.5337607564504775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N7">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O7">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P7">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q7">
-        <v>42.972545871077</v>
+        <v>31.17649175939667</v>
       </c>
       <c r="R7">
-        <v>386.752912839693</v>
+        <v>280.58842583457</v>
       </c>
       <c r="S7">
-        <v>0.059025802712768</v>
+        <v>0.1778326153977347</v>
       </c>
       <c r="T7">
-        <v>0.059025802712768</v>
+        <v>0.1778326153977347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H8">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I8">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J8">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N8">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O8">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P8">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q8">
-        <v>21.46199894261278</v>
+        <v>19.71698359281778</v>
       </c>
       <c r="R8">
-        <v>193.157990483515</v>
+        <v>177.45285233536</v>
       </c>
       <c r="S8">
-        <v>0.02947955932629382</v>
+        <v>0.1124668800814702</v>
       </c>
       <c r="T8">
-        <v>0.02947955932629383</v>
+        <v>0.1124668800814702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H9">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I9">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J9">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.124011</v>
       </c>
       <c r="O9">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P9">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q9">
-        <v>0.038830558563</v>
+        <v>0.11263312854</v>
       </c>
       <c r="R9">
-        <v>0.349475027067</v>
+        <v>1.01369815686</v>
       </c>
       <c r="S9">
-        <v>5.333649292835762E-05</v>
+        <v>0.0006424662525622497</v>
       </c>
       <c r="T9">
-        <v>5.333649292835763E-05</v>
+        <v>0.0006424662525622496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9393656666666668</v>
+        <v>2.724753333333334</v>
       </c>
       <c r="H10">
-        <v>2.818097</v>
+        <v>8.17426</v>
       </c>
       <c r="I10">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="J10">
-        <v>0.03599963817648871</v>
+        <v>0.1696222447663273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N10">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O10">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P10">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q10">
-        <v>4.707981421893668</v>
+        <v>9.907484677844446</v>
       </c>
       <c r="R10">
-        <v>42.37183279704301</v>
+        <v>89.1673621006</v>
       </c>
       <c r="S10">
-        <v>0.006466742357266528</v>
+        <v>0.05651289843229483</v>
       </c>
       <c r="T10">
-        <v>0.00646674235726653</v>
+        <v>0.05651289843229482</v>
       </c>
     </row>
   </sheetData>
